--- a/app/templates/contable/plantillas/Registro_Ventas.xlsx
+++ b/app/templates/contable/plantillas/Registro_Ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis.DESKTOP-CH6GAAE\Desktop\LUIS\SEMESTRE 2024-II\CALIDAD\informacion para el proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A2884-63A3-4B03-8711-059538B0F919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3DCD06-9D6E-42EC-BD73-E4AD436158A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="609" xr2:uid="{541982D6-E408-4169-8E03-0D517925D4ED}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -510,7 +510,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -588,12 +587,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,6 +595,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3943,8 +3957,8 @@
   </sheetPr>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4028,13 +4042,13 @@
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -4046,17 +4060,17 @@
         <v>33</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="42" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="41" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="49"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="26" t="s">
@@ -4065,13 +4079,13 @@
       <c r="Q7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="42"/>
+      <c r="R7" s="41"/>
       <c r="S7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="46"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="45"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -4099,19 +4113,19 @@
       <c r="D8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="46"/>
       <c r="J8" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="63" t="s">
+      <c r="L8" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="50"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="27" t="s">
@@ -4123,10 +4137,10 @@
       <c r="R8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="48"/>
+      <c r="V8" s="47"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
@@ -4155,11 +4169,11 @@
       <c r="E9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="65" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="26" t="s">
         <v>37</v>
       </c>
@@ -4169,7 +4183,8 @@
       <c r="K9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="22" t="s">
         <v>0</v>
       </c>
@@ -4185,9 +4200,9 @@
       <c r="R9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
       <c r="V9" s="20" t="s">
         <v>61</v>
       </c>
@@ -4239,14 +4254,14 @@
       <c r="K10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="38" t="s">
         <v>9</v>
       </c>
       <c r="M10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="27" t="s">
         <v>52</v>
       </c>
@@ -4270,238 +4285,238 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="34" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="64"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="35" t="s">
+      <c r="O11" s="73"/>
+      <c r="P11" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="Q11" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="53"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="52"/>
       <c r="T11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="54"/>
-      <c r="V11" s="37" t="s">
+      <c r="U11" s="53"/>
+      <c r="V11" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="32"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
       <c r="S12" s="13"/>
       <c r="T12" s="16"/>
       <c r="U12" s="14"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="57"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="57"/>
       <c r="S13" s="13"/>
       <c r="T13" s="16"/>
       <c r="U13" s="14"/>
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
       <c r="S14" s="13"/>
       <c r="T14" s="16"/>
       <c r="U14" s="14"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
       <c r="S15" s="13"/>
       <c r="T15" s="16"/>
       <c r="U15" s="14"/>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="13"/>
       <c r="T16" s="16"/>
       <c r="U16" s="14"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="57"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
       <c r="S17" s="13"/>
       <c r="T17" s="16"/>
       <c r="U17" s="14"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="13"/>
       <c r="T18" s="16"/>
       <c r="U18" s="14"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
       <c r="S19" s="13"/>
       <c r="T19" s="16"/>
       <c r="U19" s="14"/>
@@ -4522,7 +4537,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="68"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="14"/>
@@ -4546,7 +4561,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="68"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="14"/>
@@ -4556,23 +4571,23 @@
       <c r="V21" s="15"/>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
       <c r="R22" s="14"/>
       <c r="S22" s="13"/>
       <c r="T22" s="14"/>
@@ -4582,15 +4597,15 @@
     <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
@@ -4614,8 +4629,9 @@
       <c r="M25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/app/templates/contable/plantillas/Registro_Ventas.xlsx
+++ b/app/templates/contable/plantillas/Registro_Ventas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis.DESKTOP-CH6GAAE\Desktop\LUIS\SEMESTRE 2024-II\CALIDAD\informacion para el proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis.DESKTOP-CH6GAAE\Desktop\LUIS\SEMESTRE 2024-II\CALIDAD\PROYECTO\GITHUB\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3DCD06-9D6E-42EC-BD73-E4AD436158A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED63C09-12C3-4336-B6B4-A4353C07A6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="609" xr2:uid="{541982D6-E408-4169-8E03-0D517925D4ED}"/>
   </bookViews>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="VENCII">[1]CRONOGRAMA!$C$83:$D$452</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ISC</t>
   </si>
@@ -64,166 +64,58 @@
     <t>FORMATO 14.1: REGISTRO DE VENTAS E INGRESOS</t>
   </si>
   <si>
-    <t xml:space="preserve">     NÚMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        FECHA DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CORRELATIVO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EMISIÓN DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DEL REGISTRO O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COMPROBANTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CÓDIGO UNICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          DE PAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    O DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   VENCIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Y/O PAGO</t>
-  </si>
-  <si>
-    <t>(TABLA 10)</t>
-  </si>
-  <si>
     <t>TIPO</t>
-  </si>
-  <si>
-    <t>DE LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              O DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       COMPROBANTE DE PAGO</t>
   </si>
   <si>
     <t>(TABLA 2)</t>
   </si>
   <si>
-    <t xml:space="preserve">      N° DE SERIE DE LA</t>
+    <t>NÚMERO CORRELATIVO DEL REGISTRO O CÓDIGO UNICO DE LA OPERACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">                       INFORMACIÓN DEL CLIENTE</t>
+    <t>FECHA DE EMISIÓN DEL COMPROBANTE DE PAGO O DOCUMENTO</t>
   </si>
   <si>
-    <t xml:space="preserve"> MAQUINA REGISTRADORA</t>
+    <t>FECHA DE VENCIMIENTO Y/O PAGO</t>
   </si>
   <si>
-    <t xml:space="preserve">              N° SERIE O</t>
+    <t>COMPROBANTE DE PAGO O DOCUMENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">         DENOMINACIÓN</t>
+    <t>INFORMACIÓN DEL CLIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve"> APELLIDOS Y NOMBRES,</t>
+    <t>TIPO (TABLA 10)</t>
   </si>
   <si>
-    <t xml:space="preserve">        O RAZÓN SOCIAL</t>
+    <t>N° SERIE O N° DE SERIE DE LA MAQUINA REGISTRADORA</t>
   </si>
   <si>
-    <t>VALOR</t>
+    <t xml:space="preserve"> APELLIDOS Y NOMBRES, DENOMINACION O RAZON SOCIAL</t>
   </si>
   <si>
-    <t>FACTURADO</t>
+    <t>VALOR FACTURADO DE LA EXPORTACIÓN</t>
   </si>
   <si>
-    <t>EXPORTACIÓN</t>
+    <t>BASE IMPONIBLE DE LA OPERACIÓN GRAVADA</t>
   </si>
   <si>
-    <t xml:space="preserve">        BASE</t>
+    <t xml:space="preserve"> IMPORTE TOTAL DE LA OPERACIÓN EXACTA O INAFECTA</t>
   </si>
   <si>
-    <t xml:space="preserve">    IMPONIBLE</t>
+    <t xml:space="preserve">  OTROS TRIBUTOS Y CARGOS QUE NO FORMAN PARTE DE LA BASE IMPONIBLE</t>
   </si>
   <si>
-    <t xml:space="preserve">         DE LA</t>
+    <t>IMPORTE TOTAL DE COMPROBANTE DE PAGO</t>
   </si>
   <si>
-    <t xml:space="preserve">    OPERACIÓN</t>
+    <t>TIPO DE CAMBIO</t>
   </si>
   <si>
-    <t xml:space="preserve">       GRAVADA </t>
+    <t xml:space="preserve">          REFERENCIA DEL COMPROBANTE DE PAGO O DOCUMENTO ORIGINAL QUE SE MODIFICA</t>
   </si>
   <si>
-    <t xml:space="preserve">       EXONERADA O INAFECTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IMPORTE TOTAL DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  OTROS TRIBUTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Y CARGOS QUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO FORMAN PARTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            DE LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BASE IMPONIBLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        IMPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          TOTAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  COMPROBANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DE PAGO</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>CAMBIO</t>
-  </si>
-  <si>
-    <t>N° DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPROBANTE </t>
-  </si>
-  <si>
-    <t>DE PAGO O DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          REFERENCIA DEL COMPROBANTE DE PAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          O DOCUMENTO ORIGINAL QUE SE MODIFICA</t>
+    <t>N° DEL COMPROBANTE DE PAGO O DOCUMENTO</t>
   </si>
 </sst>
 </file>
@@ -234,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -290,16 +182,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -428,11 +333,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,104 +406,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -578,15 +424,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,23 +435,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3957,8 +3818,8 @@
   </sheetPr>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="N6" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4042,50 +3903,56 @@
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>12</v>
+      <c r="A7" s="30" t="s">
+        <v>14</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>13</v>
+      <c r="B7" s="30" t="s">
+        <v>15</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>30</v>
+      <c r="S7" s="34" t="s">
+        <v>28</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="45"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -4101,46 +3968,28 @@
       <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="46"/>
-      <c r="J8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="V8" s="47"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
@@ -4156,55 +4005,47 @@
       <c r="AI8" s="10"/>
     </row>
     <row r="9" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>16</v>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30" t="s">
+        <v>19</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
+      <c r="E9" s="30" t="s">
+        <v>20</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>22</v>
+      <c r="F9" s="30" t="s">
+        <v>3</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="26" t="s">
-        <v>37</v>
+      <c r="H9" s="41"/>
+      <c r="I9" s="30" t="s">
+        <v>21</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="22" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="22" t="s">
-        <v>6</v>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="30" t="s">
+        <v>7</v>
       </c>
-      <c r="P9" s="27" t="s">
-        <v>51</v>
+      <c r="T9" s="30" t="s">
+        <v>19</v>
       </c>
-      <c r="Q9" s="27" t="s">
-        <v>56</v>
+      <c r="U9" s="30" t="s">
+        <v>8</v>
       </c>
-      <c r="R9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="20" t="s">
-        <v>61</v>
+      <c r="V9" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -4221,302 +4062,250 @@
       <c r="AI9" s="10"/>
     </row>
     <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>18</v>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="33" t="s">
+        <v>12</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="H10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="38" t="s">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="27" t="s">
-        <v>52</v>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+    </row>
+    <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="33" t="s">
+        <v>13</v>
       </c>
-      <c r="Q10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="63"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="36" t="s">
-        <v>63</v>
-      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="57"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="13"/>
       <c r="T12" s="16"/>
       <c r="U12" s="14"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="56"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="56"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="57"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="21"/>
       <c r="S13" s="13"/>
       <c r="T13" s="16"/>
       <c r="U13" s="14"/>
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="56"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="56"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="57"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="13"/>
       <c r="T14" s="16"/>
       <c r="U14" s="14"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="56"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="56"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="13"/>
       <c r="T15" s="16"/>
       <c r="U15" s="14"/>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="56"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="56"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="13"/>
       <c r="T16" s="16"/>
       <c r="U16" s="14"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="56"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="56"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="57"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="13"/>
       <c r="T17" s="16"/>
       <c r="U17" s="14"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="56"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="56"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="57"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="13"/>
       <c r="T18" s="16"/>
       <c r="U18" s="14"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="56"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="56"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="21"/>
       <c r="S19" s="13"/>
       <c r="T19" s="16"/>
       <c r="U19" s="14"/>
@@ -4537,7 +4326,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="68"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="14"/>
@@ -4561,7 +4350,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="68"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="14"/>
@@ -4571,23 +4360,23 @@
       <c r="V21" s="15"/>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
       <c r="R22" s="14"/>
       <c r="S22" s="13"/>
       <c r="T22" s="14"/>
@@ -4597,15 +4386,15 @@
     <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
@@ -4629,9 +4418,33 @@
       <c r="M25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="26">
+    <mergeCell ref="R7:R11"/>
+    <mergeCell ref="S7:V8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="N7:N11"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="P7:P11"/>
+    <mergeCell ref="Q7:Q11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/app/templates/contable/plantillas/Registro_Ventas.xlsx
+++ b/app/templates/contable/plantillas/Registro_Ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis.DESKTOP-CH6GAAE\Desktop\LUIS\SEMESTRE 2024-II\CALIDAD\PROYECTO\GITHUB\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED63C09-12C3-4336-B6B4-A4353C07A6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EE1C65-2503-42FB-8D15-8397029BF471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="609" xr2:uid="{541982D6-E408-4169-8E03-0D517925D4ED}"/>
   </bookViews>
@@ -178,16 +178,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="3" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -374,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,10 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,89 +391,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3816,10 +3823,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N6" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9:V11"/>
+    <sheetView tabSelected="1" topLeftCell="H8" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3884,538 +3891,1118 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="34" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="30" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="33"/>
+      <c r="N7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="R7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="S7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
     </row>
     <row r="8" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
     </row>
     <row r="9" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="31" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="30" t="s">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="30" t="s">
+      <c r="T9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="30" t="s">
+      <c r="U9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="30" t="s">
+      <c r="V9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
     </row>
     <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="33" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="30" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
     </row>
     <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="33" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="16"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="23"/>
     </row>
     <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="16"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="16"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="23"/>
     </row>
     <row r="15" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="16"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="16"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="23"/>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="16"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="23"/>
     </row>
     <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="16"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="23"/>
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
     </row>
     <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="20"/>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="15"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="20"/>
     </row>
     <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+    </row>
+    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+    </row>
+    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+    </row>
+    <row r="36" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+    </row>
+    <row r="37" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+    </row>
+    <row r="38" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+    </row>
+    <row r="39" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+    </row>
+    <row r="40" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+    </row>
+    <row r="41" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+    </row>
+    <row r="42" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+    </row>
+    <row r="43" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+    </row>
+    <row r="44" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+    </row>
+    <row r="45" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+    </row>
+    <row r="46" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+    </row>
+    <row r="47" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+    </row>
+    <row r="48" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+    </row>
+    <row r="49" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+    </row>
+    <row r="50" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+    </row>
+    <row r="51" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+    </row>
+    <row r="52" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+    </row>
+    <row r="53" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+    </row>
+    <row r="54" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+    </row>
+    <row r="55" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+    </row>
+    <row r="56" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+    </row>
+    <row r="57" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+    </row>
+    <row r="58" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+    </row>
+    <row r="59" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+    </row>
+    <row r="60" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+    </row>
+    <row r="61" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+    </row>
+    <row r="62" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+    </row>
+    <row r="63" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+    </row>
+    <row r="64" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+    </row>
+    <row r="65" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+    </row>
+    <row r="66" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+    </row>
+    <row r="67" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+    </row>
+    <row r="68" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+    </row>
+    <row r="69" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+    </row>
+    <row r="70" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+    </row>
+    <row r="71" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+    </row>
+    <row r="72" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+    </row>
+    <row r="73" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+    </row>
+    <row r="74" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+    </row>
+    <row r="75" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+    </row>
+    <row r="76" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+    </row>
+    <row r="77" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+    </row>
+    <row r="78" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+    </row>
+    <row r="79" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+    </row>
+    <row r="80" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+    </row>
+    <row r="81" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+    </row>
+    <row r="82" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/app/templates/contable/plantillas/Registro_Ventas.xlsx
+++ b/app/templates/contable/plantillas/Registro_Ventas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis.DESKTOP-CH6GAAE\Desktop\LUIS\SEMESTRE 2024-II\CALIDAD\PROYECTO\GITHUB\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LPT ANGEL\USAT\8º Ciclo\INGENIERÍA Y CALIDAD DE SOFTWARE\CONTABILIDAD_PROYECTO2\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EE1C65-2503-42FB-8D15-8397029BF471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA17DD-8E1E-441D-8BF9-98A028E2C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="609" xr2:uid="{541982D6-E408-4169-8E03-0D517925D4ED}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -402,22 +402,12 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -427,15 +417,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,16 +446,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,21 +461,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3524,9 +3510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3564,7 +3550,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3670,7 +3656,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3812,7 +3798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3825,8 +3811,8 @@
   </sheetPr>
   <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3910,56 +3896,56 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="31" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="28" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="28" t="s">
+      <c r="M7" s="36"/>
+      <c r="N7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
@@ -3975,24 +3961,24 @@
       <c r="AI7" s="8"/>
     </row>
     <row r="8" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="34"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="37"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -4012,46 +3998,46 @@
       <c r="AI8" s="8"/>
     </row>
     <row r="9" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="37"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="28" t="s">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="29" t="s">
         <v>29</v>
       </c>
       <c r="W9" s="8"/>
@@ -4069,340 +4055,107 @@
       <c r="AI9" s="8"/>
     </row>
     <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="28" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
     </row>
     <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="23"/>
-    </row>
-    <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="23"/>
-    </row>
-    <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="23"/>
-    </row>
-    <row r="15" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="23"/>
-    </row>
-    <row r="16" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="23"/>
-    </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="23"/>
-    </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="23"/>
-    </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="23"/>
-    </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="20"/>
-    </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="20"/>
-    </row>
-    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="20"/>
-    </row>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="R23" s="26"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
@@ -4413,605 +4166,609 @@
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
     </row>
     <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
     </row>
     <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
     </row>
     <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
     </row>
     <row r="36" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
     </row>
     <row r="37" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
     </row>
     <row r="38" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
     </row>
     <row r="40" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
     </row>
     <row r="41" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
     </row>
     <row r="42" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
     </row>
     <row r="43" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
     </row>
     <row r="44" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
     </row>
     <row r="45" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
     </row>
     <row r="46" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
     </row>
     <row r="47" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
     </row>
     <row r="48" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
     </row>
     <row r="49" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
     </row>
     <row r="50" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
     </row>
     <row r="51" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
     </row>
     <row r="52" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
     </row>
     <row r="53" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
     </row>
     <row r="54" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
     </row>
     <row r="55" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
     </row>
     <row r="56" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
     </row>
     <row r="57" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
     </row>
     <row r="58" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
     </row>
     <row r="59" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
     </row>
     <row r="60" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
     </row>
     <row r="61" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
     </row>
     <row r="62" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="47"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
     </row>
     <row r="63" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="47"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
     </row>
     <row r="64" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="R64" s="47"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
     </row>
     <row r="65" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="47"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
     </row>
     <row r="66" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="47"/>
-      <c r="R66" s="47"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
     </row>
     <row r="67" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
     </row>
     <row r="68" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="47"/>
-      <c r="R68" s="47"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
     </row>
     <row r="69" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="47"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
     </row>
     <row r="70" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="47"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
     </row>
     <row r="71" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="47"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
     </row>
     <row r="72" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="47"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
     </row>
     <row r="73" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="47"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
     </row>
     <row r="74" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="47"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
     </row>
     <row r="75" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="47"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
     </row>
     <row r="76" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="47"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
     </row>
     <row r="77" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="47"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
     </row>
     <row r="78" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="47"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
     </row>
     <row r="79" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
     </row>
     <row r="80" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="47"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
     </row>
     <row r="81" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K81" s="47"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="47"/>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="47"/>
-      <c r="R81" s="47"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
     </row>
     <row r="82" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
-      <c r="R82" s="47"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="R7:R11"/>
-    <mergeCell ref="S7:V8"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="N7:N11"/>
     <mergeCell ref="O7:O11"/>
     <mergeCell ref="P7:P11"/>
@@ -5022,16 +4779,12 @@
     <mergeCell ref="L7:M9"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="R7:R11"/>
+    <mergeCell ref="S7:V8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/app/templates/contable/plantillas/Registro_Ventas.xlsx
+++ b/app/templates/contable/plantillas/Registro_Ventas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LPT ANGEL\USAT\8º Ciclo\INGENIERÍA Y CALIDAD DE SOFTWARE\CONTABILIDAD_PROYECTO2\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamir\OneDrive\Documentos\Visual Studio Code\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA17DD-8E1E-441D-8BF9-98A028E2C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D08F9-92FF-4B24-B1B1-043650D35C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="609" xr2:uid="{541982D6-E408-4169-8E03-0D517925D4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="609" xr2:uid="{541982D6-E408-4169-8E03-0D517925D4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="F 14.1 Reg. de Ventas" sheetId="3" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>ISC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>PERIODO:</t>
   </si>
@@ -47,18 +44,6 @@
   </si>
   <si>
     <t>IGV Y/O IPM</t>
-  </si>
-  <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>SERIE</t>
-  </si>
-  <si>
-    <t>EXONERADA</t>
-  </si>
-  <si>
-    <t>INAFECTA</t>
   </si>
   <si>
     <t>FORMATO 14.1: REGISTRO DE VENTAS E INGRESOS</t>
@@ -94,39 +79,17 @@
     <t xml:space="preserve"> APELLIDOS Y NOMBRES, DENOMINACION O RAZON SOCIAL</t>
   </si>
   <si>
-    <t>VALOR FACTURADO DE LA EXPORTACIÓN</t>
-  </si>
-  <si>
     <t>BASE IMPONIBLE DE LA OPERACIÓN GRAVADA</t>
   </si>
   <si>
-    <t xml:space="preserve"> IMPORTE TOTAL DE LA OPERACIÓN EXACTA O INAFECTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  OTROS TRIBUTOS Y CARGOS QUE NO FORMAN PARTE DE LA BASE IMPONIBLE</t>
-  </si>
-  <si>
     <t>IMPORTE TOTAL DE COMPROBANTE DE PAGO</t>
-  </si>
-  <si>
-    <t>TIPO DE CAMBIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          REFERENCIA DEL COMPROBANTE DE PAGO O DOCUMENTO ORIGINAL QUE SE MODIFICA</t>
-  </si>
-  <si>
-    <t>N° DEL COMPROBANTE DE PAGO O DOCUMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yy"/>
-  </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,12 +122,6 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -205,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -278,15 +235,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -313,15 +261,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -375,99 +314,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3809,74 +3724,74 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI82"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="15" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="15" width="17.7109375" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:35" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:35" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:35" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3895,870 +3810,770 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>14</v>
+    <row r="7" spans="1:25" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>9</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>15</v>
+      <c r="B7" s="23" t="s">
+        <v>10</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>16</v>
+      <c r="C7" s="23" t="s">
+        <v>11</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="32" t="s">
+      <c r="K7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-    </row>
-    <row r="8" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
+    </row>
+    <row r="8" spans="1:25" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-    </row>
-    <row r="9" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29" t="s">
-        <v>19</v>
+    </row>
+    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
+        <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>20</v>
+      <c r="E9" s="23" t="s">
+        <v>15</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>4</v>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="s">
+        <v>16</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="29" t="s">
-        <v>29</v>
-      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-    </row>
-    <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="13" t="s">
-        <v>12</v>
+    </row>
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>3</v>
+      <c r="H10" s="23" t="s">
+        <v>2</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="29" t="s">
-        <v>9</v>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="10" t="s">
+        <v>8</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-    </row>
-    <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-    </row>
-    <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="19"/>
-    </row>
-    <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J23" s="18"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-    </row>
-    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-    </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-    </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-    </row>
-    <row r="36" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-    </row>
-    <row r="37" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-    </row>
-    <row r="38" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-    </row>
-    <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-    </row>
-    <row r="40" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-    </row>
-    <row r="41" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-    </row>
-    <row r="42" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-    </row>
-    <row r="43" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-    </row>
-    <row r="44" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-    </row>
-    <row r="45" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-    </row>
-    <row r="46" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-    </row>
-    <row r="47" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-    </row>
-    <row r="48" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-    </row>
-    <row r="49" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-    </row>
-    <row r="50" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-    </row>
-    <row r="51" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-    </row>
-    <row r="52" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-    </row>
-    <row r="53" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-    </row>
-    <row r="54" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-    </row>
-    <row r="55" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-    </row>
-    <row r="56" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-    </row>
-    <row r="57" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-    </row>
-    <row r="58" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-    </row>
-    <row r="59" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-    </row>
-    <row r="60" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-    </row>
-    <row r="61" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-    </row>
-    <row r="62" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-    </row>
-    <row r="63" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-    </row>
-    <row r="64" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-    </row>
-    <row r="65" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-    </row>
-    <row r="66" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-    </row>
-    <row r="67" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-    </row>
-    <row r="68" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-    </row>
-    <row r="69" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
-    </row>
-    <row r="70" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="28"/>
-    </row>
-    <row r="71" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
-    </row>
-    <row r="72" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-    </row>
-    <row r="73" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-    </row>
-    <row r="74" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-    </row>
-    <row r="75" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-    </row>
-    <row r="76" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-    </row>
-    <row r="77" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-    </row>
-    <row r="78" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-    </row>
-    <row r="79" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-    </row>
-    <row r="80" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-    </row>
-    <row r="81" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-    </row>
-    <row r="82" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+    </row>
+    <row r="33" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+    </row>
+    <row r="35" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+    </row>
+    <row r="36" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+    </row>
+    <row r="37" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+    </row>
+    <row r="38" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+    </row>
+    <row r="39" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+    </row>
+    <row r="40" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+    </row>
+    <row r="41" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+    </row>
+    <row r="42" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+    </row>
+    <row r="43" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+    </row>
+    <row r="44" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+    </row>
+    <row r="45" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+    </row>
+    <row r="46" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+    </row>
+    <row r="47" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+    </row>
+    <row r="48" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+    </row>
+    <row r="49" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+    </row>
+    <row r="50" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+    </row>
+    <row r="51" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+    </row>
+    <row r="52" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+    </row>
+    <row r="53" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+    </row>
+    <row r="54" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+    </row>
+    <row r="55" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+    </row>
+    <row r="56" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+    </row>
+    <row r="57" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+    </row>
+    <row r="58" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+    </row>
+    <row r="59" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+    </row>
+    <row r="60" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+    </row>
+    <row r="61" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+    </row>
+    <row r="62" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+    </row>
+    <row r="63" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+    </row>
+    <row r="64" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+    </row>
+    <row r="65" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+    </row>
+    <row r="66" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+    </row>
+    <row r="67" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+    </row>
+    <row r="68" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+    </row>
+    <row r="69" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+    </row>
+    <row r="70" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+    </row>
+    <row r="71" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+    </row>
+    <row r="72" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+    </row>
+    <row r="73" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+    </row>
+    <row r="74" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+    </row>
+    <row r="75" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+    </row>
+    <row r="76" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+    </row>
+    <row r="77" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+    </row>
+    <row r="78" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+    </row>
+    <row r="79" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+    </row>
+    <row r="80" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+    </row>
+    <row r="81" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+    </row>
+    <row r="82" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="14">
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J7:J11"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
@@ -4769,22 +4584,6 @@
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="N7:N11"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="P7:P11"/>
-    <mergeCell ref="Q7:Q11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="L7:M9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="R7:R11"/>
-    <mergeCell ref="S7:V8"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
